--- a/3. results/d. Tables/Demographics - Worldwide (F12b).xlsx
+++ b/3. results/d. Tables/Demographics - Worldwide (F12b).xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athief/Library/CloudStorage/Dropbox/T1International-OoPE-survey-2022/3. results/d. Tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D4D7CF-44DE-F34D-8EE7-6913E1D4EA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df_6a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>characteristic</t>
   </si>
@@ -28,9 +47,6 @@
     <t>prop</t>
   </si>
   <si>
-    <t>connection to T1D</t>
-  </si>
-  <si>
     <t>betterhalf</t>
   </si>
   <si>
@@ -76,9 +92,6 @@
     <t>(20.9%)</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>female</t>
   </si>
   <si>
@@ -88,9 +101,6 @@
     <t>male</t>
   </si>
   <si>
-    <t>(26.1%)</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -100,50 +110,71 @@
     <t>pnta</t>
   </si>
   <si>
-    <t>monthly household income (USD)</t>
-  </si>
-  <si>
     <t>[0,1000)</t>
   </si>
   <si>
-    <t>(20.8%)</t>
-  </si>
-  <si>
     <t>[1000,1500)</t>
   </si>
   <si>
-    <t>(6.7%)</t>
-  </si>
-  <si>
     <t>[1500,3000)</t>
   </si>
   <si>
-    <t>(16.8%)</t>
-  </si>
-  <si>
     <t>[3000,5000)</t>
   </si>
   <si>
-    <t>(11.7%)</t>
-  </si>
-  <si>
     <t>[5000,Inf]</t>
   </si>
   <si>
-    <t>(7.9%)</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>(36%)</t>
+  </si>
+  <si>
+    <t>(26%)</t>
+  </si>
+  <si>
+    <t>(6.8%)</t>
+  </si>
+  <si>
+    <t>(16.7%)</t>
+  </si>
+  <si>
+    <t>(11.5%)</t>
+  </si>
+  <si>
+    <t>(8%)</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Connection to T1D</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Monthly household expenses (excluding diabetes, USD)</t>
+  </si>
+  <si>
+    <t>Last update: June 2023</t>
+  </si>
+  <si>
+    <t>Total N worldwide: 1,008</t>
+  </si>
+  <si>
+    <t>(0.2%)</t>
+  </si>
+  <si>
+    <t>(1.0%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +190,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -176,26 +223,280 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +534,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -267,6 +568,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,9 +603,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,272 +779,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8">
+        <v>768</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="19">
+        <f>SUM(C2:C4)</f>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>29</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9">
+        <v>211</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" s="8">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E5" s="19">
+        <f>SUM(C5:C9)</f>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C7" s="2">
+        <v>223</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>223</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C8" s="2">
+        <v>766</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>767</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8">
+        <v>724</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="19">
+        <f>SUM(C10:C13)</f>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>262</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>769</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
+      <c r="D12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>363</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="20">
+        <f>SUM(C14:C19)</f>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2">
+        <v>211</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>69</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2">
+        <v>168</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2">
+        <v>116</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>211</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>724</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>263</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>210</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>170</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C19" s="7">
+        <v>81</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18">
-        <v>363</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="E5:E9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2:E5 E10:E19">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1008</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
+      <formula>1008</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5:D8 D15:D19 D10:D12" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>